--- a/Code/Results/Cases/Case_1_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007662555448247</v>
+        <v>1.03312892454576</v>
       </c>
       <c r="D2">
-        <v>1.043318081797665</v>
+        <v>1.053403162710365</v>
       </c>
       <c r="E2">
-        <v>1.02465684868939</v>
+        <v>1.043691578821516</v>
       </c>
       <c r="F2">
-        <v>1.039375341630238</v>
+        <v>1.057557636787626</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050611636352909</v>
+        <v>1.041115032753239</v>
       </c>
       <c r="J2">
-        <v>1.029616471551401</v>
+        <v>1.038255348293803</v>
       </c>
       <c r="K2">
-        <v>1.054205194607085</v>
+        <v>1.056149227842278</v>
       </c>
       <c r="L2">
-        <v>1.035783038106585</v>
+        <v>1.046464730418206</v>
       </c>
       <c r="M2">
-        <v>1.05031207362928</v>
+        <v>1.060292279306937</v>
       </c>
       <c r="N2">
-        <v>1.013735470443618</v>
+        <v>1.016723836333503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01131502718423</v>
+        <v>1.033915492423133</v>
       </c>
       <c r="D3">
-        <v>1.046079447951593</v>
+        <v>1.054018309200397</v>
       </c>
       <c r="E3">
-        <v>1.027628527606696</v>
+        <v>1.044381608696078</v>
       </c>
       <c r="F3">
-        <v>1.04260983267359</v>
+        <v>1.058307870091975</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051567349734987</v>
+        <v>1.041276446949004</v>
       </c>
       <c r="J3">
-        <v>1.031501914871053</v>
+        <v>1.038685327062235</v>
       </c>
       <c r="K3">
-        <v>1.056154821666162</v>
+        <v>1.056577919120915</v>
       </c>
       <c r="L3">
-        <v>1.0379196915201</v>
+        <v>1.046966163192721</v>
       </c>
       <c r="M3">
-        <v>1.052725064482597</v>
+        <v>1.060856534037247</v>
       </c>
       <c r="N3">
-        <v>1.014370650404156</v>
+        <v>1.0168676811827</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013638198335503</v>
+        <v>1.034425263961879</v>
       </c>
       <c r="D4">
-        <v>1.047838112146963</v>
+        <v>1.054416904718106</v>
       </c>
       <c r="E4">
-        <v>1.029524295878818</v>
+        <v>1.044829187830686</v>
       </c>
       <c r="F4">
-        <v>1.044672490352295</v>
+        <v>1.05879441549422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052167289827345</v>
+        <v>1.04138004983428</v>
       </c>
       <c r="J4">
-        <v>1.032699356476859</v>
+        <v>1.038963677686767</v>
       </c>
       <c r="K4">
-        <v>1.057391521603978</v>
+        <v>1.05685517010841</v>
       </c>
       <c r="L4">
-        <v>1.039278983240586</v>
+        <v>1.047291027575408</v>
       </c>
       <c r="M4">
-        <v>1.054260072657161</v>
+        <v>1.06122207002615</v>
       </c>
       <c r="N4">
-        <v>1.014773920269402</v>
+        <v>1.016960764962218</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014605508794751</v>
+        <v>1.034639763826675</v>
       </c>
       <c r="D5">
-        <v>1.048570875602797</v>
+        <v>1.054584604947711</v>
       </c>
       <c r="E5">
-        <v>1.030314961665564</v>
+        <v>1.045017607486784</v>
       </c>
       <c r="F5">
-        <v>1.045532574595186</v>
+        <v>1.058999218927669</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052415151445447</v>
+        <v>1.041423401893196</v>
       </c>
       <c r="J5">
-        <v>1.033197485075152</v>
+        <v>1.039080725018856</v>
       </c>
       <c r="K5">
-        <v>1.057905602284064</v>
+        <v>1.056971691096705</v>
       </c>
       <c r="L5">
-        <v>1.039844993376811</v>
+        <v>1.047427695679437</v>
       </c>
       <c r="M5">
-        <v>1.054899226923642</v>
+        <v>1.061375841399514</v>
       </c>
       <c r="N5">
-        <v>1.014941644492913</v>
+        <v>1.01699989846019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014767384045943</v>
+        <v>1.034675790496542</v>
       </c>
       <c r="D6">
-        <v>1.048693528393442</v>
+        <v>1.054612770155849</v>
       </c>
       <c r="E6">
-        <v>1.030447352552088</v>
+        <v>1.045049259010008</v>
       </c>
       <c r="F6">
-        <v>1.045676578112503</v>
+        <v>1.059033621492137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052456515172645</v>
+        <v>1.04143066899109</v>
       </c>
       <c r="J6">
-        <v>1.033280817268885</v>
+        <v>1.039100379426647</v>
       </c>
       <c r="K6">
-        <v>1.057991580301303</v>
+        <v>1.056991253365618</v>
       </c>
       <c r="L6">
-        <v>1.039939713990247</v>
+        <v>1.047450648387701</v>
       </c>
       <c r="M6">
-        <v>1.055006186500215</v>
+        <v>1.061401666103695</v>
       </c>
       <c r="N6">
-        <v>1.014969701129099</v>
+        <v>1.017006469195614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013651159965105</v>
+        <v>1.034428129367865</v>
       </c>
       <c r="D7">
-        <v>1.047847929017924</v>
+        <v>1.054419145025967</v>
       </c>
       <c r="E7">
-        <v>1.029534885381109</v>
+        <v>1.044831704494567</v>
       </c>
       <c r="F7">
-        <v>1.044684010320823</v>
+        <v>1.058797151069902</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052170618781956</v>
+        <v>1.041380629903673</v>
       </c>
       <c r="J7">
-        <v>1.032706033061315</v>
+        <v>1.038965241567744</v>
       </c>
       <c r="K7">
-        <v>1.057398413520463</v>
+        <v>1.056856727208364</v>
       </c>
       <c r="L7">
-        <v>1.03928656748159</v>
+        <v>1.047292853369523</v>
       </c>
       <c r="M7">
-        <v>1.054268637093111</v>
+        <v>1.06122412433594</v>
       </c>
       <c r="N7">
-        <v>1.014776168468896</v>
+        <v>1.016961287862317</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008905424951199</v>
+        <v>1.033394580086572</v>
       </c>
       <c r="D8">
-        <v>1.044257216311584</v>
+        <v>1.05361093825069</v>
       </c>
       <c r="E8">
-        <v>1.025666861051552</v>
+        <v>1.043924552040364</v>
       </c>
       <c r="F8">
-        <v>1.040474838558775</v>
+        <v>1.057810953726771</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050938490810355</v>
+        <v>1.041169757479312</v>
       </c>
       <c r="J8">
-        <v>1.030258416246567</v>
+        <v>1.038400634816906</v>
       </c>
       <c r="K8">
-        <v>1.054869296149965</v>
+        <v>1.056294134295054</v>
       </c>
       <c r="L8">
-        <v>1.036510029692741</v>
+        <v>1.046634107412459</v>
       </c>
       <c r="M8">
-        <v>1.051133103150952</v>
+        <v>1.060482882655613</v>
       </c>
       <c r="N8">
-        <v>1.013951759152512</v>
+        <v>1.016772447724754</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000221703436752</v>
+        <v>1.031579618020689</v>
       </c>
       <c r="D9">
-        <v>1.037707321828345</v>
+        <v>1.05219111508083</v>
       </c>
       <c r="E9">
-        <v>1.018635157967137</v>
+        <v>1.042334423459244</v>
       </c>
       <c r="F9">
-        <v>1.03281696223742</v>
+        <v>1.056081627498193</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04862263649221</v>
+        <v>1.040791753392567</v>
       </c>
       <c r="J9">
-        <v>1.025766635212479</v>
+        <v>1.037406746964421</v>
       </c>
       <c r="K9">
-        <v>1.050216875836993</v>
+        <v>1.055301764482584</v>
       </c>
       <c r="L9">
-        <v>1.031432958581805</v>
+        <v>1.04547647505701</v>
       </c>
       <c r="M9">
-        <v>1.045399135471613</v>
+        <v>1.059180058564732</v>
       </c>
       <c r="N9">
-        <v>1.012437880857364</v>
+        <v>1.016439759031994</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9941974872306658</v>
+        <v>1.030373981490977</v>
       </c>
       <c r="D10">
-        <v>1.033180559992252</v>
+        <v>1.051247610227018</v>
       </c>
       <c r="E10">
-        <v>1.013790413379667</v>
+        <v>1.041280100998536</v>
       </c>
       <c r="F10">
-        <v>1.027536826548945</v>
+        <v>1.054934577905325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046976721081325</v>
+        <v>1.040535482487465</v>
       </c>
       <c r="J10">
-        <v>1.022643229441399</v>
+        <v>1.036744922076971</v>
       </c>
       <c r="K10">
-        <v>1.046975503177042</v>
+        <v>1.054639601062784</v>
       </c>
       <c r="L10">
-        <v>1.027915063084746</v>
+        <v>1.044706939865131</v>
       </c>
       <c r="M10">
-        <v>1.041426079084821</v>
+        <v>1.058313862089524</v>
       </c>
       <c r="N10">
-        <v>1.011384677095819</v>
+        <v>1.016218044086723</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9915286395154334</v>
+        <v>1.029852980509666</v>
       </c>
       <c r="D11">
-        <v>1.031179960917693</v>
+        <v>1.050839810872523</v>
       </c>
       <c r="E11">
-        <v>1.011652560663534</v>
+        <v>1.040824960678379</v>
       </c>
       <c r="F11">
-        <v>1.025205928114946</v>
+        <v>1.054439304981239</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046238703393916</v>
+        <v>1.040423512219301</v>
       </c>
       <c r="J11">
-        <v>1.021258133432352</v>
+        <v>1.036458543539568</v>
       </c>
       <c r="K11">
-        <v>1.045536887106374</v>
+        <v>1.054352758739213</v>
       </c>
       <c r="L11">
-        <v>1.026358022351286</v>
+        <v>1.044374268982509</v>
       </c>
       <c r="M11">
-        <v>1.039667653883136</v>
+        <v>1.057939370524464</v>
       </c>
       <c r="N11">
-        <v>1.010917533446448</v>
+        <v>1.01612206365745</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9905278374166391</v>
+        <v>1.029659616882456</v>
       </c>
       <c r="D12">
-        <v>1.03043054518657</v>
+        <v>1.05068845006097</v>
       </c>
       <c r="E12">
-        <v>1.010852198494137</v>
+        <v>1.040656111993615</v>
       </c>
       <c r="F12">
-        <v>1.02433315797557</v>
+        <v>1.054255552284763</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045960664381463</v>
+        <v>1.040381771562689</v>
       </c>
       <c r="J12">
-        <v>1.020738557442371</v>
+        <v>1.036352200628064</v>
       </c>
       <c r="K12">
-        <v>1.044997077821495</v>
+        <v>1.054246196156025</v>
       </c>
       <c r="L12">
-        <v>1.025774399573196</v>
+        <v>1.044250783391354</v>
       </c>
       <c r="M12">
-        <v>1.039008563827779</v>
+        <v>1.057800356276706</v>
       </c>
       <c r="N12">
-        <v>1.010742287362918</v>
+        <v>1.016086416302042</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9907429483871866</v>
+        <v>1.029701086795378</v>
       </c>
       <c r="D13">
-        <v>1.030591586372316</v>
+        <v>1.050720912274023</v>
       </c>
       <c r="E13">
-        <v>1.011024166745419</v>
+        <v>1.040692321041188</v>
       </c>
       <c r="F13">
-        <v>1.024520690144501</v>
+        <v>1.05429495815351</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046020483155064</v>
+        <v>1.040390731845995</v>
       </c>
       <c r="J13">
-        <v>1.020850241665832</v>
+        <v>1.036375010126367</v>
       </c>
       <c r="K13">
-        <v>1.045113117934925</v>
+        <v>1.054269054915558</v>
       </c>
       <c r="L13">
-        <v>1.025899830297508</v>
+        <v>1.044277267679513</v>
       </c>
       <c r="M13">
-        <v>1.039150212898975</v>
+        <v>1.057830171265653</v>
       </c>
       <c r="N13">
-        <v>1.010779957452679</v>
+        <v>1.016094062589462</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9914461086051429</v>
+        <v>1.029836993750276</v>
       </c>
       <c r="D14">
-        <v>1.03111814390623</v>
+        <v>1.050827297001951</v>
       </c>
       <c r="E14">
-        <v>1.011586531853649</v>
+        <v>1.040810999283031</v>
       </c>
       <c r="F14">
-        <v>1.025133928502879</v>
+        <v>1.05442411155283</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046215800897253</v>
+        <v>1.040420064977064</v>
       </c>
       <c r="J14">
-        <v>1.021215290055207</v>
+        <v>1.036449752564459</v>
       </c>
       <c r="K14">
-        <v>1.045492378372537</v>
+        <v>1.054343950571468</v>
       </c>
       <c r="L14">
-        <v>1.026309888550493</v>
+        <v>1.044364059918689</v>
       </c>
       <c r="M14">
-        <v>1.039613295591602</v>
+        <v>1.057927877745273</v>
       </c>
       <c r="N14">
-        <v>1.010903083165449</v>
+        <v>1.016119116950414</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9918780808727855</v>
+        <v>1.029920751682341</v>
       </c>
       <c r="D15">
-        <v>1.031441731186544</v>
+        <v>1.050892859318568</v>
       </c>
       <c r="E15">
-        <v>1.011932185172248</v>
+        <v>1.040884148847361</v>
       </c>
       <c r="F15">
-        <v>1.025510832746508</v>
+        <v>1.054503715613883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046335621844301</v>
+        <v>1.040438118246699</v>
       </c>
       <c r="J15">
-        <v>1.02143952826465</v>
+        <v>1.036495807973713</v>
       </c>
       <c r="K15">
-        <v>1.045725326649555</v>
+        <v>1.054390094109805</v>
       </c>
       <c r="L15">
-        <v>1.026561834836723</v>
+        <v>1.044417546553157</v>
       </c>
       <c r="M15">
-        <v>1.039897823414319</v>
+        <v>1.057988089727584</v>
       </c>
       <c r="N15">
-        <v>1.010978714120545</v>
+        <v>1.01613455432074</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9943733044107902</v>
+        <v>1.030408580847845</v>
       </c>
       <c r="D16">
-        <v>1.033312461541642</v>
+        <v>1.051274690398261</v>
       </c>
       <c r="E16">
-        <v>1.013931430672482</v>
+        <v>1.041310336593138</v>
       </c>
       <c r="F16">
-        <v>1.027690558482071</v>
+        <v>1.054967477382284</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047025158762017</v>
+        <v>1.04054289251727</v>
       </c>
       <c r="J16">
-        <v>1.022734450365769</v>
+        <v>1.036763932324818</v>
       </c>
       <c r="K16">
-        <v>1.047070225734268</v>
+        <v>1.054658635429334</v>
       </c>
       <c r="L16">
-        <v>1.028017670851977</v>
+        <v>1.044729029713053</v>
       </c>
       <c r="M16">
-        <v>1.041541959979582</v>
+        <v>1.058338728182661</v>
       </c>
       <c r="N16">
-        <v>1.011415440931835</v>
+        <v>1.016224414532006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9959220593669609</v>
+        <v>1.030714865038201</v>
       </c>
       <c r="D17">
-        <v>1.034474929725498</v>
+        <v>1.051514403801611</v>
       </c>
       <c r="E17">
-        <v>1.015174609062541</v>
+        <v>1.041578046084453</v>
       </c>
       <c r="F17">
-        <v>1.029045721472716</v>
+        <v>1.055258761248644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047450836700419</v>
+        <v>1.040608346620339</v>
       </c>
       <c r="J17">
-        <v>1.023537853850454</v>
+        <v>1.036932173097707</v>
       </c>
       <c r="K17">
-        <v>1.047904334129479</v>
+        <v>1.054827053012378</v>
       </c>
       <c r="L17">
-        <v>1.028921702822953</v>
+        <v>1.044924561370856</v>
       </c>
       <c r="M17">
-        <v>1.042562944665298</v>
+        <v>1.058558830283536</v>
       </c>
       <c r="N17">
-        <v>1.011686374725195</v>
+        <v>1.016280788143592</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9968196305703297</v>
+        <v>1.030893616371332</v>
       </c>
       <c r="D18">
-        <v>1.035149087462869</v>
+        <v>1.051654296259237</v>
       </c>
       <c r="E18">
-        <v>1.015895887760926</v>
+        <v>1.041734330306381</v>
       </c>
       <c r="F18">
-        <v>1.02983188455458</v>
+        <v>1.055428797811188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0476966910344</v>
+        <v>1.040646428034886</v>
       </c>
       <c r="J18">
-        <v>1.024003329208021</v>
+        <v>1.037030323913327</v>
       </c>
       <c r="K18">
-        <v>1.048387482824277</v>
+        <v>1.05492527633619</v>
       </c>
       <c r="L18">
-        <v>1.029445764877712</v>
+        <v>1.045038663955573</v>
       </c>
       <c r="M18">
-        <v>1.04315480997536</v>
+        <v>1.058687267683503</v>
       </c>
       <c r="N18">
-        <v>1.01184333914168</v>
+        <v>1.016313672161306</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9971247089402232</v>
+        <v>1.030954583019744</v>
       </c>
       <c r="D19">
-        <v>1.035378304540737</v>
+        <v>1.05170200806488</v>
       </c>
       <c r="E19">
-        <v>1.016141180215518</v>
+        <v>1.041787641818269</v>
       </c>
       <c r="F19">
-        <v>1.03009922792726</v>
+        <v>1.05548679881643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047780110747343</v>
+        <v>1.040659396359769</v>
       </c>
       <c r="J19">
-        <v>1.024161517785188</v>
+        <v>1.037063793955064</v>
       </c>
       <c r="K19">
-        <v>1.048551657092416</v>
+        <v>1.054958765899528</v>
       </c>
       <c r="L19">
-        <v>1.029623911933272</v>
+        <v>1.045077578806124</v>
       </c>
       <c r="M19">
-        <v>1.043356006639715</v>
+        <v>1.058731070886142</v>
       </c>
       <c r="N19">
-        <v>1.01189668081003</v>
+        <v>1.016324885126826</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9957564945408175</v>
+        <v>1.030681993187793</v>
       </c>
       <c r="D20">
-        <v>1.034350611853902</v>
+        <v>1.051488677391634</v>
       </c>
       <c r="E20">
-        <v>1.015041627400812</v>
+        <v>1.041549309534225</v>
       </c>
       <c r="F20">
-        <v>1.028900770014338</v>
+        <v>1.055227495202845</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047405418212093</v>
+        <v>1.040601334026954</v>
       </c>
       <c r="J20">
-        <v>1.023451981974054</v>
+        <v>1.036914120498479</v>
       </c>
       <c r="K20">
-        <v>1.047815192259992</v>
+        <v>1.054808984608653</v>
       </c>
       <c r="L20">
-        <v>1.028825045720613</v>
+        <v>1.044903577255568</v>
       </c>
       <c r="M20">
-        <v>1.042453782523287</v>
+        <v>1.058535209649944</v>
       </c>
       <c r="N20">
-        <v>1.011657416852683</v>
+        <v>1.016274739552865</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.991239310363944</v>
+        <v>1.029796968125392</v>
       </c>
       <c r="D21">
-        <v>1.03096326170275</v>
+        <v>1.050795966186006</v>
       </c>
       <c r="E21">
-        <v>1.01142110447441</v>
+        <v>1.04077604566552</v>
       </c>
       <c r="F21">
-        <v>1.024953539796237</v>
+        <v>1.054386073177506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046158393367983</v>
+        <v>1.040411431232852</v>
       </c>
       <c r="J21">
-        <v>1.021107934444242</v>
+        <v>1.036427741917252</v>
       </c>
       <c r="K21">
-        <v>1.045380847318131</v>
+        <v>1.054321896111886</v>
       </c>
       <c r="L21">
-        <v>1.026189283670627</v>
+        <v>1.04433849945815</v>
       </c>
       <c r="M21">
-        <v>1.039477094821906</v>
+        <v>1.057899103161648</v>
       </c>
       <c r="N21">
-        <v>1.010866873919485</v>
+        <v>1.016111738949752</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9883441483521952</v>
+        <v>1.029241440569154</v>
       </c>
       <c r="D22">
-        <v>1.028796908162554</v>
+        <v>1.050361091951297</v>
       </c>
       <c r="E22">
-        <v>1.009108336354956</v>
+        <v>1.040291084047506</v>
       </c>
       <c r="F22">
-        <v>1.022431282822487</v>
+        <v>1.053858275413766</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045351684007751</v>
+        <v>1.0402911648609</v>
       </c>
       <c r="J22">
-        <v>1.019604592260792</v>
+        <v>1.036122115444867</v>
       </c>
       <c r="K22">
-        <v>1.043818693192614</v>
+        <v>1.054015549166069</v>
       </c>
       <c r="L22">
-        <v>1.024501489323553</v>
+        <v>1.043983694711616</v>
       </c>
       <c r="M22">
-        <v>1.037571094830388</v>
+        <v>1.057499671266796</v>
       </c>
       <c r="N22">
-        <v>1.010359797380656</v>
+        <v>1.016009277679184</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9898842876311663</v>
+        <v>1.029535848113911</v>
       </c>
       <c r="D23">
-        <v>1.029948878780878</v>
+        <v>1.050591563649626</v>
       </c>
       <c r="E23">
-        <v>1.010337916442615</v>
+        <v>1.040548055020221</v>
       </c>
       <c r="F23">
-        <v>1.023772311249836</v>
+        <v>1.054137952906281</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045781518679848</v>
+        <v>1.040355002243637</v>
       </c>
       <c r="J23">
-        <v>1.020404407690703</v>
+        <v>1.036284116388195</v>
       </c>
       <c r="K23">
-        <v>1.044649874545671</v>
+        <v>1.054177957944733</v>
       </c>
       <c r="L23">
-        <v>1.025399188082021</v>
+        <v>1.044171737184515</v>
       </c>
       <c r="M23">
-        <v>1.038584840075749</v>
+        <v>1.057711368373131</v>
       </c>
       <c r="N23">
-        <v>1.010629580131131</v>
+        <v>1.016063591925083</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9958313240268272</v>
+        <v>1.03069684625039</v>
       </c>
       <c r="D24">
-        <v>1.034406797755595</v>
+        <v>1.051500301827726</v>
       </c>
       <c r="E24">
-        <v>1.015101727958017</v>
+        <v>1.041562293931179</v>
       </c>
       <c r="F24">
-        <v>1.028966280548018</v>
+        <v>1.055241622564411</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047425948393964</v>
+        <v>1.04060450301543</v>
       </c>
       <c r="J24">
-        <v>1.023490793457673</v>
+        <v>1.036922277633043</v>
       </c>
       <c r="K24">
-        <v>1.047855482044052</v>
+        <v>1.054817148979242</v>
       </c>
       <c r="L24">
-        <v>1.028868730917371</v>
+        <v>1.044913058912709</v>
       </c>
       <c r="M24">
-        <v>1.042503119485108</v>
+        <v>1.058545882626083</v>
       </c>
       <c r="N24">
-        <v>1.011670504960891</v>
+        <v>1.016277472643791</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002506621434455</v>
+        <v>1.032048072889199</v>
       </c>
       <c r="D25">
-        <v>1.039428056883971</v>
+        <v>1.052557646078456</v>
       </c>
       <c r="E25">
-        <v>1.020479778232154</v>
+        <v>1.042744502945143</v>
       </c>
       <c r="F25">
-        <v>1.034826541062764</v>
+        <v>1.056527681158803</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049238958963471</v>
+        <v>1.040890232341439</v>
       </c>
       <c r="J25">
-        <v>1.026949921238866</v>
+        <v>1.037663561483871</v>
       </c>
       <c r="K25">
-        <v>1.051443652134611</v>
+        <v>1.055558425670628</v>
       </c>
       <c r="L25">
-        <v>1.032768278096164</v>
+        <v>1.045775366380598</v>
       </c>
       <c r="M25">
-        <v>1.046907247739241</v>
+        <v>1.059516463028282</v>
       </c>
       <c r="N25">
-        <v>1.012836785291703</v>
+        <v>1.016525755512047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03312892454576</v>
+        <v>1.007662555448247</v>
       </c>
       <c r="D2">
-        <v>1.053403162710365</v>
+        <v>1.043318081797665</v>
       </c>
       <c r="E2">
-        <v>1.043691578821516</v>
+        <v>1.02465684868939</v>
       </c>
       <c r="F2">
-        <v>1.057557636787626</v>
+        <v>1.039375341630238</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041115032753239</v>
+        <v>1.050611636352909</v>
       </c>
       <c r="J2">
-        <v>1.038255348293803</v>
+        <v>1.029616471551401</v>
       </c>
       <c r="K2">
-        <v>1.056149227842278</v>
+        <v>1.054205194607084</v>
       </c>
       <c r="L2">
-        <v>1.046464730418206</v>
+        <v>1.035783038106584</v>
       </c>
       <c r="M2">
-        <v>1.060292279306937</v>
+        <v>1.050312073629279</v>
       </c>
       <c r="N2">
-        <v>1.016723836333503</v>
+        <v>1.013735470443618</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033915492423133</v>
+        <v>1.011315027184229</v>
       </c>
       <c r="D3">
-        <v>1.054018309200397</v>
+        <v>1.046079447951593</v>
       </c>
       <c r="E3">
-        <v>1.044381608696078</v>
+        <v>1.027628527606695</v>
       </c>
       <c r="F3">
-        <v>1.058307870091975</v>
+        <v>1.042609832673589</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041276446949004</v>
+        <v>1.051567349734986</v>
       </c>
       <c r="J3">
-        <v>1.038685327062235</v>
+        <v>1.031501914871052</v>
       </c>
       <c r="K3">
-        <v>1.056577919120915</v>
+        <v>1.056154821666162</v>
       </c>
       <c r="L3">
-        <v>1.046966163192721</v>
+        <v>1.037919691520099</v>
       </c>
       <c r="M3">
-        <v>1.060856534037247</v>
+        <v>1.052725064482596</v>
       </c>
       <c r="N3">
-        <v>1.0168676811827</v>
+        <v>1.014370650404156</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034425263961879</v>
+        <v>1.013638198335503</v>
       </c>
       <c r="D4">
-        <v>1.054416904718106</v>
+        <v>1.047838112146962</v>
       </c>
       <c r="E4">
-        <v>1.044829187830686</v>
+        <v>1.029524295878818</v>
       </c>
       <c r="F4">
-        <v>1.05879441549422</v>
+        <v>1.044672490352295</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04138004983428</v>
+        <v>1.052167289827345</v>
       </c>
       <c r="J4">
-        <v>1.038963677686767</v>
+        <v>1.032699356476859</v>
       </c>
       <c r="K4">
-        <v>1.05685517010841</v>
+        <v>1.057391521603977</v>
       </c>
       <c r="L4">
-        <v>1.047291027575408</v>
+        <v>1.039278983240585</v>
       </c>
       <c r="M4">
-        <v>1.06122207002615</v>
+        <v>1.05426007265716</v>
       </c>
       <c r="N4">
-        <v>1.016960764962218</v>
+        <v>1.014773920269402</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034639763826675</v>
+        <v>1.014605508794751</v>
       </c>
       <c r="D5">
-        <v>1.054584604947711</v>
+        <v>1.048570875602798</v>
       </c>
       <c r="E5">
-        <v>1.045017607486784</v>
+        <v>1.030314961665564</v>
       </c>
       <c r="F5">
-        <v>1.058999218927669</v>
+        <v>1.045532574595186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041423401893196</v>
+        <v>1.052415151445447</v>
       </c>
       <c r="J5">
-        <v>1.039080725018856</v>
+        <v>1.033197485075153</v>
       </c>
       <c r="K5">
-        <v>1.056971691096705</v>
+        <v>1.057905602284065</v>
       </c>
       <c r="L5">
-        <v>1.047427695679437</v>
+        <v>1.039844993376811</v>
       </c>
       <c r="M5">
-        <v>1.061375841399514</v>
+        <v>1.054899226923642</v>
       </c>
       <c r="N5">
-        <v>1.01699989846019</v>
+        <v>1.014941644492913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034675790496542</v>
+        <v>1.014767384045943</v>
       </c>
       <c r="D6">
-        <v>1.054612770155849</v>
+        <v>1.048693528393442</v>
       </c>
       <c r="E6">
-        <v>1.045049259010008</v>
+        <v>1.030447352552088</v>
       </c>
       <c r="F6">
-        <v>1.059033621492137</v>
+        <v>1.045676578112503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04143066899109</v>
+        <v>1.052456515172645</v>
       </c>
       <c r="J6">
-        <v>1.039100379426647</v>
+        <v>1.033280817268885</v>
       </c>
       <c r="K6">
-        <v>1.056991253365618</v>
+        <v>1.057991580301303</v>
       </c>
       <c r="L6">
-        <v>1.047450648387701</v>
+        <v>1.039939713990247</v>
       </c>
       <c r="M6">
-        <v>1.061401666103695</v>
+        <v>1.055006186500215</v>
       </c>
       <c r="N6">
-        <v>1.017006469195614</v>
+        <v>1.014969701129099</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034428129367865</v>
+        <v>1.013651159965104</v>
       </c>
       <c r="D7">
-        <v>1.054419145025967</v>
+        <v>1.047847929017924</v>
       </c>
       <c r="E7">
-        <v>1.044831704494567</v>
+        <v>1.029534885381109</v>
       </c>
       <c r="F7">
-        <v>1.058797151069902</v>
+        <v>1.044684010320823</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041380629903673</v>
+        <v>1.052170618781956</v>
       </c>
       <c r="J7">
-        <v>1.038965241567744</v>
+        <v>1.032706033061314</v>
       </c>
       <c r="K7">
-        <v>1.056856727208364</v>
+        <v>1.057398413520463</v>
       </c>
       <c r="L7">
-        <v>1.047292853369523</v>
+        <v>1.03928656748159</v>
       </c>
       <c r="M7">
-        <v>1.06122412433594</v>
+        <v>1.054268637093112</v>
       </c>
       <c r="N7">
-        <v>1.016961287862317</v>
+        <v>1.014776168468896</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033394580086572</v>
+        <v>1.008905424951199</v>
       </c>
       <c r="D8">
-        <v>1.05361093825069</v>
+        <v>1.044257216311584</v>
       </c>
       <c r="E8">
-        <v>1.043924552040364</v>
+        <v>1.025666861051551</v>
       </c>
       <c r="F8">
-        <v>1.057810953726771</v>
+        <v>1.040474838558774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041169757479312</v>
+        <v>1.050938490810355</v>
       </c>
       <c r="J8">
-        <v>1.038400634816906</v>
+        <v>1.030258416246566</v>
       </c>
       <c r="K8">
-        <v>1.056294134295054</v>
+        <v>1.054869296149965</v>
       </c>
       <c r="L8">
-        <v>1.046634107412459</v>
+        <v>1.036510029692739</v>
       </c>
       <c r="M8">
-        <v>1.060482882655613</v>
+        <v>1.051133103150951</v>
       </c>
       <c r="N8">
-        <v>1.016772447724754</v>
+        <v>1.013951759152511</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031579618020689</v>
+        <v>1.000221703436751</v>
       </c>
       <c r="D9">
-        <v>1.05219111508083</v>
+        <v>1.037707321828344</v>
       </c>
       <c r="E9">
-        <v>1.042334423459244</v>
+        <v>1.018635157967137</v>
       </c>
       <c r="F9">
-        <v>1.056081627498193</v>
+        <v>1.032816962237419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040791753392567</v>
+        <v>1.04862263649221</v>
       </c>
       <c r="J9">
-        <v>1.037406746964421</v>
+        <v>1.025766635212478</v>
       </c>
       <c r="K9">
-        <v>1.055301764482584</v>
+        <v>1.050216875836992</v>
       </c>
       <c r="L9">
-        <v>1.04547647505701</v>
+        <v>1.031432958581805</v>
       </c>
       <c r="M9">
-        <v>1.059180058564732</v>
+        <v>1.045399135471613</v>
       </c>
       <c r="N9">
-        <v>1.016439759031994</v>
+        <v>1.012437880857364</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030373981490977</v>
+        <v>0.9941974872306657</v>
       </c>
       <c r="D10">
-        <v>1.051247610227018</v>
+        <v>1.033180559992253</v>
       </c>
       <c r="E10">
-        <v>1.041280100998536</v>
+        <v>1.013790413379667</v>
       </c>
       <c r="F10">
-        <v>1.054934577905325</v>
+        <v>1.027536826548945</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040535482487465</v>
+        <v>1.046976721081325</v>
       </c>
       <c r="J10">
-        <v>1.036744922076971</v>
+        <v>1.022643229441399</v>
       </c>
       <c r="K10">
-        <v>1.054639601062784</v>
+        <v>1.046975503177042</v>
       </c>
       <c r="L10">
-        <v>1.044706939865131</v>
+        <v>1.027915063084746</v>
       </c>
       <c r="M10">
-        <v>1.058313862089524</v>
+        <v>1.041426079084821</v>
       </c>
       <c r="N10">
-        <v>1.016218044086723</v>
+        <v>1.011384677095819</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029852980509666</v>
+        <v>0.9915286395154334</v>
       </c>
       <c r="D11">
-        <v>1.050839810872523</v>
+        <v>1.031179960917693</v>
       </c>
       <c r="E11">
-        <v>1.040824960678379</v>
+        <v>1.011652560663534</v>
       </c>
       <c r="F11">
-        <v>1.054439304981239</v>
+        <v>1.025205928114946</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040423512219301</v>
+        <v>1.046238703393916</v>
       </c>
       <c r="J11">
-        <v>1.036458543539568</v>
+        <v>1.021258133432352</v>
       </c>
       <c r="K11">
-        <v>1.054352758739213</v>
+        <v>1.045536887106374</v>
       </c>
       <c r="L11">
-        <v>1.044374268982509</v>
+        <v>1.026358022351286</v>
       </c>
       <c r="M11">
-        <v>1.057939370524464</v>
+        <v>1.039667653883135</v>
       </c>
       <c r="N11">
-        <v>1.01612206365745</v>
+        <v>1.010917533446448</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029659616882456</v>
+        <v>0.9905278374166385</v>
       </c>
       <c r="D12">
-        <v>1.05068845006097</v>
+        <v>1.03043054518657</v>
       </c>
       <c r="E12">
-        <v>1.040656111993615</v>
+        <v>1.010852198494136</v>
       </c>
       <c r="F12">
-        <v>1.054255552284763</v>
+        <v>1.02433315797557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040381771562689</v>
+        <v>1.045960664381463</v>
       </c>
       <c r="J12">
-        <v>1.036352200628064</v>
+        <v>1.020738557442371</v>
       </c>
       <c r="K12">
-        <v>1.054246196156025</v>
+        <v>1.044997077821495</v>
       </c>
       <c r="L12">
-        <v>1.044250783391354</v>
+        <v>1.025774399573196</v>
       </c>
       <c r="M12">
-        <v>1.057800356276706</v>
+        <v>1.039008563827779</v>
       </c>
       <c r="N12">
-        <v>1.016086416302042</v>
+        <v>1.010742287362918</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029701086795378</v>
+        <v>0.9907429483871865</v>
       </c>
       <c r="D13">
-        <v>1.050720912274023</v>
+        <v>1.030591586372316</v>
       </c>
       <c r="E13">
-        <v>1.040692321041188</v>
+        <v>1.011024166745418</v>
       </c>
       <c r="F13">
-        <v>1.05429495815351</v>
+        <v>1.024520690144501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040390731845995</v>
+        <v>1.046020483155064</v>
       </c>
       <c r="J13">
-        <v>1.036375010126367</v>
+        <v>1.020850241665832</v>
       </c>
       <c r="K13">
-        <v>1.054269054915558</v>
+        <v>1.045113117934925</v>
       </c>
       <c r="L13">
-        <v>1.044277267679513</v>
+        <v>1.025899830297508</v>
       </c>
       <c r="M13">
-        <v>1.057830171265653</v>
+        <v>1.039150212898975</v>
       </c>
       <c r="N13">
-        <v>1.016094062589462</v>
+        <v>1.010779957452679</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029836993750276</v>
+        <v>0.9914461086051428</v>
       </c>
       <c r="D14">
-        <v>1.050827297001951</v>
+        <v>1.03111814390623</v>
       </c>
       <c r="E14">
-        <v>1.040810999283031</v>
+        <v>1.011586531853649</v>
       </c>
       <c r="F14">
-        <v>1.05442411155283</v>
+        <v>1.025133928502879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040420064977064</v>
+        <v>1.046215800897253</v>
       </c>
       <c r="J14">
-        <v>1.036449752564459</v>
+        <v>1.021215290055207</v>
       </c>
       <c r="K14">
-        <v>1.054343950571468</v>
+        <v>1.045492378372537</v>
       </c>
       <c r="L14">
-        <v>1.044364059918689</v>
+        <v>1.026309888550493</v>
       </c>
       <c r="M14">
-        <v>1.057927877745273</v>
+        <v>1.039613295591603</v>
       </c>
       <c r="N14">
-        <v>1.016119116950414</v>
+        <v>1.010903083165449</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029920751682341</v>
+        <v>0.9918780808727854</v>
       </c>
       <c r="D15">
-        <v>1.050892859318568</v>
+        <v>1.031441731186545</v>
       </c>
       <c r="E15">
-        <v>1.040884148847361</v>
+        <v>1.011932185172248</v>
       </c>
       <c r="F15">
-        <v>1.054503715613883</v>
+        <v>1.025510832746508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040438118246699</v>
+        <v>1.046335621844301</v>
       </c>
       <c r="J15">
-        <v>1.036495807973713</v>
+        <v>1.02143952826465</v>
       </c>
       <c r="K15">
-        <v>1.054390094109805</v>
+        <v>1.045725326649555</v>
       </c>
       <c r="L15">
-        <v>1.044417546553157</v>
+        <v>1.026561834836723</v>
       </c>
       <c r="M15">
-        <v>1.057988089727584</v>
+        <v>1.039897823414319</v>
       </c>
       <c r="N15">
-        <v>1.01613455432074</v>
+        <v>1.010978714120545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030408580847845</v>
+        <v>0.9943733044107903</v>
       </c>
       <c r="D16">
-        <v>1.051274690398261</v>
+        <v>1.033312461541641</v>
       </c>
       <c r="E16">
-        <v>1.041310336593138</v>
+        <v>1.013931430672482</v>
       </c>
       <c r="F16">
-        <v>1.054967477382284</v>
+        <v>1.027690558482071</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04054289251727</v>
+        <v>1.047025158762017</v>
       </c>
       <c r="J16">
-        <v>1.036763932324818</v>
+        <v>1.022734450365769</v>
       </c>
       <c r="K16">
-        <v>1.054658635429334</v>
+        <v>1.047070225734267</v>
       </c>
       <c r="L16">
-        <v>1.044729029713053</v>
+        <v>1.028017670851977</v>
       </c>
       <c r="M16">
-        <v>1.058338728182661</v>
+        <v>1.041541959979582</v>
       </c>
       <c r="N16">
-        <v>1.016224414532006</v>
+        <v>1.011415440931835</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030714865038201</v>
+        <v>0.9959220593669605</v>
       </c>
       <c r="D17">
-        <v>1.051514403801611</v>
+        <v>1.034474929725498</v>
       </c>
       <c r="E17">
-        <v>1.041578046084453</v>
+        <v>1.01517460906254</v>
       </c>
       <c r="F17">
-        <v>1.055258761248644</v>
+        <v>1.029045721472716</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040608346620339</v>
+        <v>1.047450836700418</v>
       </c>
       <c r="J17">
-        <v>1.036932173097707</v>
+        <v>1.023537853850454</v>
       </c>
       <c r="K17">
-        <v>1.054827053012378</v>
+        <v>1.047904334129479</v>
       </c>
       <c r="L17">
-        <v>1.044924561370856</v>
+        <v>1.028921702822952</v>
       </c>
       <c r="M17">
-        <v>1.058558830283536</v>
+        <v>1.042562944665298</v>
       </c>
       <c r="N17">
-        <v>1.016280788143592</v>
+        <v>1.011686374725195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030893616371332</v>
+        <v>0.9968196305703293</v>
       </c>
       <c r="D18">
-        <v>1.051654296259237</v>
+        <v>1.035149087462869</v>
       </c>
       <c r="E18">
-        <v>1.041734330306381</v>
+        <v>1.015895887760926</v>
       </c>
       <c r="F18">
-        <v>1.055428797811188</v>
+        <v>1.02983188455458</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040646428034886</v>
+        <v>1.0476966910344</v>
       </c>
       <c r="J18">
-        <v>1.037030323913327</v>
+        <v>1.02400332920802</v>
       </c>
       <c r="K18">
-        <v>1.05492527633619</v>
+        <v>1.048387482824277</v>
       </c>
       <c r="L18">
-        <v>1.045038663955573</v>
+        <v>1.029445764877712</v>
       </c>
       <c r="M18">
-        <v>1.058687267683503</v>
+        <v>1.04315480997536</v>
       </c>
       <c r="N18">
-        <v>1.016313672161306</v>
+        <v>1.011843339141679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030954583019744</v>
+        <v>0.9971247089402223</v>
       </c>
       <c r="D19">
-        <v>1.05170200806488</v>
+        <v>1.035378304540737</v>
       </c>
       <c r="E19">
-        <v>1.041787641818269</v>
+        <v>1.016141180215517</v>
       </c>
       <c r="F19">
-        <v>1.05548679881643</v>
+        <v>1.030099227927259</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040659396359769</v>
+        <v>1.047780110747342</v>
       </c>
       <c r="J19">
-        <v>1.037063793955064</v>
+        <v>1.024161517785187</v>
       </c>
       <c r="K19">
-        <v>1.054958765899528</v>
+        <v>1.048551657092415</v>
       </c>
       <c r="L19">
-        <v>1.045077578806124</v>
+        <v>1.029623911933272</v>
       </c>
       <c r="M19">
-        <v>1.058731070886142</v>
+        <v>1.043356006639714</v>
       </c>
       <c r="N19">
-        <v>1.016324885126826</v>
+        <v>1.01189668081003</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030681993187793</v>
+        <v>0.9957564945408173</v>
       </c>
       <c r="D20">
-        <v>1.051488677391634</v>
+        <v>1.034350611853902</v>
       </c>
       <c r="E20">
-        <v>1.041549309534225</v>
+        <v>1.015041627400812</v>
       </c>
       <c r="F20">
-        <v>1.055227495202845</v>
+        <v>1.028900770014338</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040601334026954</v>
+        <v>1.047405418212093</v>
       </c>
       <c r="J20">
-        <v>1.036914120498479</v>
+        <v>1.023451981974054</v>
       </c>
       <c r="K20">
-        <v>1.054808984608653</v>
+        <v>1.047815192259992</v>
       </c>
       <c r="L20">
-        <v>1.044903577255568</v>
+        <v>1.028825045720613</v>
       </c>
       <c r="M20">
-        <v>1.058535209649944</v>
+        <v>1.042453782523287</v>
       </c>
       <c r="N20">
-        <v>1.016274739552865</v>
+        <v>1.011657416852683</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.029796968125392</v>
+        <v>0.9912393103639436</v>
       </c>
       <c r="D21">
-        <v>1.050795966186006</v>
+        <v>1.03096326170275</v>
       </c>
       <c r="E21">
-        <v>1.04077604566552</v>
+        <v>1.01142110447441</v>
       </c>
       <c r="F21">
-        <v>1.054386073177506</v>
+        <v>1.024953539796237</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040411431232852</v>
+        <v>1.046158393367983</v>
       </c>
       <c r="J21">
-        <v>1.036427741917252</v>
+        <v>1.021107934444242</v>
       </c>
       <c r="K21">
-        <v>1.054321896111886</v>
+        <v>1.04538084731813</v>
       </c>
       <c r="L21">
-        <v>1.04433849945815</v>
+        <v>1.026189283670627</v>
       </c>
       <c r="M21">
-        <v>1.057899103161648</v>
+        <v>1.039477094821906</v>
       </c>
       <c r="N21">
-        <v>1.016111738949752</v>
+        <v>1.010866873919485</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029241440569154</v>
+        <v>0.9883441483521943</v>
       </c>
       <c r="D22">
-        <v>1.050361091951297</v>
+        <v>1.028796908162554</v>
       </c>
       <c r="E22">
-        <v>1.040291084047506</v>
+        <v>1.009108336354956</v>
       </c>
       <c r="F22">
-        <v>1.053858275413766</v>
+        <v>1.022431282822487</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0402911648609</v>
+        <v>1.045351684007751</v>
       </c>
       <c r="J22">
-        <v>1.036122115444867</v>
+        <v>1.019604592260791</v>
       </c>
       <c r="K22">
-        <v>1.054015549166069</v>
+        <v>1.043818693192614</v>
       </c>
       <c r="L22">
-        <v>1.043983694711616</v>
+        <v>1.024501489323552</v>
       </c>
       <c r="M22">
-        <v>1.057499671266796</v>
+        <v>1.037571094830388</v>
       </c>
       <c r="N22">
-        <v>1.016009277679184</v>
+        <v>1.010359797380655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>1.029535848113911</v>
+        <v>0.9898842876311655</v>
       </c>
       <c r="D23">
-        <v>1.050591563649626</v>
+        <v>1.029948878780878</v>
       </c>
       <c r="E23">
-        <v>1.040548055020221</v>
+        <v>1.010337916442614</v>
       </c>
       <c r="F23">
-        <v>1.054137952906281</v>
+        <v>1.023772311249836</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040355002243637</v>
+        <v>1.045781518679848</v>
       </c>
       <c r="J23">
-        <v>1.036284116388195</v>
+        <v>1.020404407690702</v>
       </c>
       <c r="K23">
-        <v>1.054177957944733</v>
+        <v>1.04464987454567</v>
       </c>
       <c r="L23">
-        <v>1.044171737184515</v>
+        <v>1.025399188082021</v>
       </c>
       <c r="M23">
-        <v>1.057711368373131</v>
+        <v>1.038584840075748</v>
       </c>
       <c r="N23">
-        <v>1.016063591925083</v>
+        <v>1.010629580131131</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03069684625039</v>
+        <v>0.9958313240268268</v>
       </c>
       <c r="D24">
-        <v>1.051500301827726</v>
+        <v>1.034406797755595</v>
       </c>
       <c r="E24">
-        <v>1.041562293931179</v>
+        <v>1.015101727958017</v>
       </c>
       <c r="F24">
-        <v>1.055241622564411</v>
+        <v>1.028966280548017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04060450301543</v>
+        <v>1.047425948393963</v>
       </c>
       <c r="J24">
-        <v>1.036922277633043</v>
+        <v>1.023490793457672</v>
       </c>
       <c r="K24">
-        <v>1.054817148979242</v>
+        <v>1.047855482044052</v>
       </c>
       <c r="L24">
-        <v>1.044913058912709</v>
+        <v>1.02886873091737</v>
       </c>
       <c r="M24">
-        <v>1.058545882626083</v>
+        <v>1.042503119485107</v>
       </c>
       <c r="N24">
-        <v>1.016277472643791</v>
+        <v>1.011670504960891</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032048072889199</v>
+        <v>1.002506621434455</v>
       </c>
       <c r="D25">
-        <v>1.052557646078456</v>
+        <v>1.039428056883971</v>
       </c>
       <c r="E25">
-        <v>1.042744502945143</v>
+        <v>1.020479778232154</v>
       </c>
       <c r="F25">
-        <v>1.056527681158803</v>
+        <v>1.034826541062763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040890232341439</v>
+        <v>1.04923895896347</v>
       </c>
       <c r="J25">
-        <v>1.037663561483871</v>
+        <v>1.026949921238866</v>
       </c>
       <c r="K25">
-        <v>1.055558425670628</v>
+        <v>1.051443652134611</v>
       </c>
       <c r="L25">
-        <v>1.045775366380598</v>
+        <v>1.032768278096164</v>
       </c>
       <c r="M25">
-        <v>1.059516463028282</v>
+        <v>1.046907247739241</v>
       </c>
       <c r="N25">
-        <v>1.016525755512047</v>
+        <v>1.012836785291703</v>
       </c>
     </row>
   </sheetData>
